--- a/Code/WebUI/Files/长期计划申报模板.xlsx
+++ b/Code/WebUI/Files/长期计划申报模板.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>航线走向和飞行高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>航空器呼号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +58,14 @@
   </si>
   <si>
     <t>航空器类型（代号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,60 +419,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="2" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
